--- a/Service.MedicalRecord/wwwroot/layout/excel/FormatoEnvioMuestras/FormatoEnvioMuestras.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/FormatoEnvioMuestras/FormatoEnvioMuestras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\workspace\axsis\LabRamos\API\Service.MedicalRecord\wwwroot\layout\excel\trackingOrder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.MedicalRecord\wwwroot\layout\excel\FormatoEnvioMuestras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33F24E1-707F-467B-84BA-38EA42DF5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94CD24C-5B97-44C2-8F8B-484B38834B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Orden" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Destino</t>
   </si>
@@ -145,18 +145,6 @@
     <t>PAQUETE {{NumeroSeguimiento}}</t>
   </si>
   <si>
-    <t>{{Destinatario.Destino}}</t>
-  </si>
-  <si>
-    <t>{{Destinatario.Responsable}}</t>
-  </si>
-  <si>
-    <t>{{Destinatario.FechaEstimada}}</t>
-  </si>
-  <si>
-    <t>{{Destinatario.FechaReal}}</t>
-  </si>
-  <si>
     <t>{{Origen.Origen}}</t>
   </si>
   <si>
@@ -182,6 +170,15 @@
   </si>
   <si>
     <t>{{Orden.Paciente}}</t>
+  </si>
+  <si>
+    <t>{{Origen.Destino}}</t>
+  </si>
+  <si>
+    <t>{{Origen.FechaEstimada}}</t>
+  </si>
+  <si>
+    <t>{{Origen.FechaReal}}</t>
   </si>
 </sst>
 </file>
@@ -248,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -275,15 +272,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A4281-45E9-4A26-88B5-8DB32AE336F4}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,29 +662,27 @@
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="3"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -708,41 +699,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>25</v>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -762,25 +751,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -788,18 +777,18 @@
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -822,37 +811,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="E16" s="2"/>
     </row>
